--- a/output/GAUSS_20725810000112.xlsx
+++ b/output/GAUSS_20725810000112.xlsx
@@ -1197,10 +1197,10 @@
         <v>44165</v>
       </c>
       <c r="B74">
-        <v>1.1041952</v>
+        <v>1.1010408</v>
       </c>
       <c r="C74">
-        <v>0.02211130731064315</v>
+        <v>0.0205790597759179</v>
       </c>
     </row>
   </sheetData>

--- a/output/GAUSS_20725810000112.xlsx
+++ b/output/GAUSS_20725810000112.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>GAUSS II FUNDO DE INVESTIMENTO EM COTAS DE FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,821 +383,602 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41973</v>
       </c>
       <c r="B2">
-        <v>0.009545899999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42004</v>
       </c>
       <c r="B3">
-        <v>0.02231969999999994</v>
-      </c>
-      <c r="C3">
         <v>0.01265301557858822</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42035</v>
       </c>
       <c r="B4">
-        <v>0.04316450000000005</v>
-      </c>
-      <c r="C4">
         <v>0.0203897078379689</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42063</v>
       </c>
       <c r="B5">
-        <v>0.04636320000000005</v>
-      </c>
-      <c r="C5">
         <v>0.003066342844297409</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42094</v>
       </c>
       <c r="B6">
-        <v>0.07110159999999999</v>
-      </c>
-      <c r="C6">
         <v>0.02364226876480369</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42124</v>
       </c>
       <c r="B7">
-        <v>0.07992719999999998</v>
-      </c>
-      <c r="C7">
         <v>0.008239741215959384</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42155</v>
       </c>
       <c r="B8">
-        <v>0.08108730000000008</v>
-      </c>
-      <c r="C8">
         <v>0.001074239078338035</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42185</v>
       </c>
       <c r="B9">
-        <v>0.0668841</v>
-      </c>
-      <c r="C9">
         <v>-0.01313788442431996</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42216</v>
       </c>
       <c r="B10">
-        <v>0.1018870999999999</v>
-      </c>
-      <c r="C10">
         <v>0.03280862466691548</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42247</v>
       </c>
       <c r="B11">
-        <v>0.06975419999999999</v>
-      </c>
-      <c r="C11">
         <v>-0.0291616990524709</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42277</v>
       </c>
       <c r="B12">
-        <v>0.1122495999999999</v>
-      </c>
-      <c r="C12">
         <v>0.03972445258920221</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42308</v>
       </c>
       <c r="B13">
-        <v>0.1081226</v>
-      </c>
-      <c r="C13">
         <v>-0.003710498075252144</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42338</v>
       </c>
       <c r="B14">
-        <v>0.1262907</v>
-      </c>
-      <c r="C14">
         <v>0.01639538801934015</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42369</v>
       </c>
       <c r="B15">
-        <v>0.1122114000000001</v>
-      </c>
-      <c r="C15">
         <v>-0.01250059154355077</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42400</v>
       </c>
       <c r="B16">
-        <v>0.1274980999999999</v>
-      </c>
-      <c r="C16">
         <v>0.0137444194511942</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42429</v>
       </c>
       <c r="B17">
-        <v>0.1332462000000001</v>
-      </c>
-      <c r="C17">
         <v>0.005098101717422088</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42460</v>
       </c>
       <c r="B18">
-        <v>0.189719</v>
-      </c>
-      <c r="C18">
         <v>0.04983277243726913</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42490</v>
       </c>
       <c r="B19">
-        <v>0.2259291000000001</v>
-      </c>
-      <c r="C19">
         <v>0.03043584241320851</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42521</v>
       </c>
       <c r="B20">
-        <v>0.222494</v>
-      </c>
-      <c r="C20">
         <v>-0.002802038062396983</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42551</v>
       </c>
       <c r="B21">
-        <v>0.2673116</v>
-      </c>
-      <c r="C21">
         <v>0.03666079342720696</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42582</v>
       </c>
       <c r="B22">
-        <v>0.2966637999999999</v>
-      </c>
-      <c r="C22">
         <v>0.02316099686927831</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42613</v>
       </c>
       <c r="B23">
-        <v>0.3064817</v>
-      </c>
-      <c r="C23">
         <v>0.007571661983623024</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42643</v>
       </c>
       <c r="B24">
-        <v>0.318452</v>
-      </c>
-      <c r="C24">
         <v>0.009162240848838543</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42674</v>
       </c>
       <c r="B25">
-        <v>0.3421616999999999</v>
-      </c>
-      <c r="C25">
         <v>0.01798298307408985</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42704</v>
       </c>
       <c r="B26">
-        <v>0.3428992</v>
-      </c>
-      <c r="C26">
         <v>0.0005494866974673496</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42735</v>
       </c>
       <c r="B27">
-        <v>0.3907400000000001</v>
-      </c>
-      <c r="C27">
         <v>0.0356250119145205</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42766</v>
       </c>
       <c r="B28">
-        <v>0.3960258999999999</v>
-      </c>
-      <c r="C28">
         <v>0.003800782317327389</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42794</v>
       </c>
       <c r="B29">
-        <v>0.4098412</v>
-      </c>
-      <c r="C29">
         <v>0.009896163101271949</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42825</v>
       </c>
       <c r="B30">
-        <v>0.4031465000000001</v>
-      </c>
-      <c r="C30">
         <v>-0.004748548985516909</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42855</v>
       </c>
       <c r="B31">
-        <v>0.3917984000000001</v>
-      </c>
-      <c r="C31">
         <v>-0.008087608813477365</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42886</v>
       </c>
       <c r="B32">
-        <v>0.3644278999999999</v>
-      </c>
-      <c r="C32">
         <v>-0.01966556363335392</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42916</v>
       </c>
       <c r="B33">
-        <v>0.3663046999999999</v>
-      </c>
-      <c r="C33">
         <v>0.001375521564752624</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42947</v>
       </c>
       <c r="B34">
-        <v>0.4213237999999999</v>
-      </c>
-      <c r="C34">
         <v>0.04026854331980267</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42978</v>
       </c>
       <c r="B35">
-        <v>0.4395935</v>
-      </c>
-      <c r="C35">
         <v>0.01285400272619097</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43008</v>
       </c>
       <c r="B36">
-        <v>0.5054650999999999</v>
-      </c>
-      <c r="C36">
         <v>0.04575708351003249</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43039</v>
       </c>
       <c r="B37">
-        <v>0.5281130999999999</v>
-      </c>
-      <c r="C37">
         <v>0.01504385588214574</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43069</v>
       </c>
       <c r="B38">
-        <v>0.5036996</v>
-      </c>
-      <c r="C38">
         <v>-0.01597623893152922</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43100</v>
       </c>
       <c r="B39">
-        <v>0.5466913</v>
-      </c>
-      <c r="C39">
         <v>0.02859061743449298</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43131</v>
       </c>
       <c r="B40">
-        <v>0.5889963</v>
-      </c>
-      <c r="C40">
         <v>0.02735193506293077</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43159</v>
       </c>
       <c r="B41">
-        <v>0.5567785000000001</v>
-      </c>
-      <c r="C41">
         <v>-0.02027556640629058</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43190</v>
       </c>
       <c r="B42">
-        <v>0.4973633</v>
-      </c>
-      <c r="C42">
         <v>-0.03816548083108806</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43220</v>
       </c>
       <c r="B43">
-        <v>0.4725507</v>
-      </c>
-      <c r="C43">
         <v>-0.01657086159384291</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43251</v>
       </c>
       <c r="B44">
-        <v>0.4223996999999999</v>
-      </c>
-      <c r="C44">
         <v>-0.03405723144201422</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43281</v>
       </c>
       <c r="B45">
-        <v>0.4730837999999999</v>
-      </c>
-      <c r="C45">
         <v>0.0356328112273927</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43312</v>
       </c>
       <c r="B46">
-        <v>0.4740012</v>
-      </c>
-      <c r="C46">
         <v>0.0006227751605170084</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43343</v>
       </c>
       <c r="B47">
-        <v>0.5303085000000001</v>
-      </c>
-      <c r="C47">
         <v>0.03820030811372477</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43373</v>
       </c>
       <c r="B48">
-        <v>0.5706281</v>
-      </c>
-      <c r="C48">
         <v>0.02634736721386566</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43404</v>
       </c>
       <c r="B49">
-        <v>0.6225788000000001</v>
-      </c>
-      <c r="C49">
         <v>0.03307638517354938</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43434</v>
       </c>
       <c r="B50">
-        <v>0.6453317999999999</v>
-      </c>
-      <c r="C50">
         <v>0.01402273960438771</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43465</v>
       </c>
       <c r="B51">
-        <v>0.6462384999999999</v>
-      </c>
-      <c r="C51">
         <v>0.0005510742574841299</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43496</v>
       </c>
       <c r="B52">
-        <v>0.7068019000000001</v>
-      </c>
-      <c r="C52">
         <v>0.03678895858649889</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43524</v>
       </c>
       <c r="B53">
-        <v>0.7174988</v>
-      </c>
-      <c r="C53">
         <v>0.00626721824014842</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43555</v>
       </c>
       <c r="B54">
-        <v>0.7313628000000001</v>
-      </c>
-      <c r="C54">
         <v>0.008072203602121908</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43585</v>
       </c>
       <c r="B55">
-        <v>0.7538095</v>
-      </c>
-      <c r="C55">
         <v>0.012964758166226</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43616</v>
       </c>
       <c r="B56">
-        <v>0.7539355000000001</v>
-      </c>
-      <c r="C56">
         <v>7.184360673151424e-05</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43646</v>
       </c>
       <c r="B57">
-        <v>0.8005138000000001</v>
-      </c>
-      <c r="C57">
         <v>0.02655644976682425</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43677</v>
       </c>
       <c r="B58">
-        <v>0.8108010999999999</v>
-      </c>
-      <c r="C58">
         <v>0.005713535769622968</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43708</v>
       </c>
       <c r="B59">
-        <v>0.8342415999999999</v>
-      </c>
-      <c r="C59">
         <v>0.0129448231503726</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43738</v>
       </c>
       <c r="B60">
-        <v>0.8529864</v>
-      </c>
-      <c r="C60">
         <v>0.01021937350019764</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43769</v>
       </c>
       <c r="B61">
-        <v>0.9038758</v>
-      </c>
-      <c r="C61">
         <v>0.02746345035236097</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43799</v>
       </c>
       <c r="B62">
-        <v>0.8182988</v>
-      </c>
-      <c r="C62">
         <v>-0.044948835422983</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43830</v>
       </c>
       <c r="B63">
-        <v>0.9246274999999999</v>
-      </c>
-      <c r="C63">
         <v>0.05847702258836662</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43861</v>
       </c>
       <c r="B64">
-        <v>0.9250936999999999</v>
-      </c>
-      <c r="C64">
         <v>0.0002422286910064297</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43890</v>
       </c>
       <c r="B65">
-        <v>0.7859533000000001</v>
-      </c>
-      <c r="C65">
         <v>-0.07227720915610492</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43921</v>
       </c>
       <c r="B66">
-        <v>0.8050001</v>
-      </c>
-      <c r="C66">
         <v>0.01066478054045428</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43951</v>
       </c>
       <c r="B67">
-        <v>0.9414648999999999</v>
-      </c>
-      <c r="C67">
         <v>0.07560376312444528</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43982</v>
       </c>
       <c r="B68">
-        <v>1.0089859</v>
-      </c>
-      <c r="C68">
         <v>0.03477837791453253</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>44012</v>
       </c>
       <c r="B69">
-        <v>1.0885703</v>
-      </c>
-      <c r="C69">
         <v>0.03961421531131726</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>44043</v>
       </c>
       <c r="B70">
-        <v>1.153677</v>
-      </c>
-      <c r="C70">
         <v>0.03117285542172077</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>44074</v>
       </c>
       <c r="B71">
-        <v>1.1142998</v>
-      </c>
-      <c r="C71">
         <v>-0.01828370735258822</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>44104</v>
       </c>
       <c r="B72">
-        <v>1.0512721</v>
-      </c>
-      <c r="C72">
         <v>-0.02981020004826185</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>44135</v>
       </c>
       <c r="B73">
-        <v>1.0586752</v>
-      </c>
-      <c r="C73">
         <v>0.003609028758300825</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>44165</v>
       </c>
       <c r="B74">
-        <v>1.1010408</v>
-      </c>
-      <c r="C74">
-        <v>0.0205790597759179</v>
+        <v>0.02224945440640647</v>
       </c>
     </row>
   </sheetData>
